--- a/data/pca/factorExposure/factorExposure_2012-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-31.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002762186857842318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002217007179342538</v>
+      </c>
+      <c r="C2">
+        <v>0.02917414364698473</v>
+      </c>
+      <c r="D2">
+        <v>0.004976095231071873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.000393760087291288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006477189641899821</v>
+      </c>
+      <c r="C4">
+        <v>0.08379009647788432</v>
+      </c>
+      <c r="D4">
+        <v>0.0685206844311422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00569309370467252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01464086362813855</v>
+      </c>
+      <c r="C6">
+        <v>0.1188357048827486</v>
+      </c>
+      <c r="D6">
+        <v>0.02128149997956388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006932047029453854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004620009778952001</v>
+      </c>
+      <c r="C7">
+        <v>0.05900232423262215</v>
+      </c>
+      <c r="D7">
+        <v>0.03229697686259284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006217453360134108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004917276952611605</v>
+      </c>
+      <c r="C8">
+        <v>0.03581898816357866</v>
+      </c>
+      <c r="D8">
+        <v>0.03947825820003905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003441798556357009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005460306446995803</v>
+      </c>
+      <c r="C9">
+        <v>0.0718725514692104</v>
+      </c>
+      <c r="D9">
+        <v>0.07439766891557233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001139515663278766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002298938362608431</v>
+      </c>
+      <c r="C10">
+        <v>0.05181188615052428</v>
+      </c>
+      <c r="D10">
+        <v>-0.1867706203575293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0006067840955592611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005898642627466981</v>
+      </c>
+      <c r="C11">
+        <v>0.08025642346879484</v>
+      </c>
+      <c r="D11">
+        <v>0.0653758644111687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000433464883671705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004377004386471341</v>
+      </c>
+      <c r="C12">
+        <v>0.06533657510342696</v>
+      </c>
+      <c r="D12">
+        <v>0.04948992444088173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002190207025693978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008558864151640063</v>
+      </c>
+      <c r="C13">
+        <v>0.07118286170371174</v>
+      </c>
+      <c r="D13">
+        <v>0.05773557093331977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001666426362921776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006442359008889508</v>
+      </c>
+      <c r="C14">
+        <v>0.04302044367382626</v>
+      </c>
+      <c r="D14">
+        <v>0.01212329759648851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001202452990737851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005558849130514823</v>
+      </c>
+      <c r="C15">
+        <v>0.04064902071546846</v>
+      </c>
+      <c r="D15">
+        <v>0.02955536858684753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0004152264264097383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005268184862729776</v>
+      </c>
+      <c r="C16">
+        <v>0.06501639696131596</v>
+      </c>
+      <c r="D16">
+        <v>0.05692808673096792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002641262464179923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008681454657343168</v>
+      </c>
+      <c r="C20">
+        <v>0.06412653886598571</v>
+      </c>
+      <c r="D20">
+        <v>0.05273600159689273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00525241582755234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.008998331586628553</v>
+      </c>
+      <c r="C21">
+        <v>0.02007134044316125</v>
+      </c>
+      <c r="D21">
+        <v>0.04048494845757909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0202385515531615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.00806880031056263</v>
+      </c>
+      <c r="C22">
+        <v>0.08734778758454211</v>
+      </c>
+      <c r="D22">
+        <v>0.1232235587220174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01988068091556448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007758672740598946</v>
+      </c>
+      <c r="C23">
+        <v>0.08773190098075538</v>
+      </c>
+      <c r="D23">
+        <v>0.1243298990400064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001201487359930316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005709918101983911</v>
+      </c>
+      <c r="C24">
+        <v>0.07720100396321904</v>
+      </c>
+      <c r="D24">
+        <v>0.06719859482852387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002995290735993253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003028248753206325</v>
+      </c>
+      <c r="C25">
+        <v>0.07849127176938124</v>
+      </c>
+      <c r="D25">
+        <v>0.06536548154870167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001727881641181746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003170866483109521</v>
+      </c>
+      <c r="C26">
+        <v>0.0390012163433636</v>
+      </c>
+      <c r="D26">
+        <v>0.02404249927064886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006388437324518981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002008878213284381</v>
+      </c>
+      <c r="C28">
+        <v>0.1028957692589638</v>
+      </c>
+      <c r="D28">
+        <v>-0.3259650601900018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0007048845171341369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003099240318704296</v>
+      </c>
+      <c r="C29">
+        <v>0.04720038312172206</v>
+      </c>
+      <c r="D29">
+        <v>0.01209751751681423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002874057540274938</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008779598441540788</v>
+      </c>
+      <c r="C30">
+        <v>0.1413988589253706</v>
+      </c>
+      <c r="D30">
+        <v>0.1093762199631258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002107836912370765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006052059907408592</v>
+      </c>
+      <c r="C31">
+        <v>0.04369936904023543</v>
+      </c>
+      <c r="D31">
+        <v>0.03261720098098946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005727961838596781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004013488225010543</v>
+      </c>
+      <c r="C32">
+        <v>0.03987750990405784</v>
+      </c>
+      <c r="D32">
+        <v>0.02027579024268844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0003924282710976352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00859954069387747</v>
+      </c>
+      <c r="C33">
+        <v>0.09017815298959271</v>
+      </c>
+      <c r="D33">
+        <v>0.06415263745372508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001323524522438263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004129149697824056</v>
+      </c>
+      <c r="C34">
+        <v>0.05794599817517736</v>
+      </c>
+      <c r="D34">
+        <v>0.05873120468495181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002125283233646583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005094021288988387</v>
+      </c>
+      <c r="C35">
+        <v>0.04050142530554875</v>
+      </c>
+      <c r="D35">
+        <v>0.01643617936414249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004645888863378472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001657570710144225</v>
+      </c>
+      <c r="C36">
+        <v>0.02522925591843376</v>
+      </c>
+      <c r="D36">
+        <v>0.02456526391367881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002719107630002073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008903313874053846</v>
+      </c>
+      <c r="C38">
+        <v>0.04111742740095482</v>
+      </c>
+      <c r="D38">
+        <v>0.01157288533374518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01091897034471948</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.002087916109556544</v>
+      </c>
+      <c r="C39">
+        <v>0.1116461262860165</v>
+      </c>
+      <c r="D39">
+        <v>0.08060731588910491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003759810530828504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002521281586654379</v>
+      </c>
+      <c r="C40">
+        <v>0.09124420311015029</v>
+      </c>
+      <c r="D40">
+        <v>0.01671037083135957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002410621026749258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007316418537672509</v>
+      </c>
+      <c r="C41">
+        <v>0.04139341706421011</v>
+      </c>
+      <c r="D41">
+        <v>0.04101177958292408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001680144175994966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003713043853294881</v>
+      </c>
+      <c r="C43">
+        <v>0.05409240944189869</v>
+      </c>
+      <c r="D43">
+        <v>0.02910246964938875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007367438246719068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001889096575354956</v>
+      </c>
+      <c r="C44">
+        <v>0.1052484748661997</v>
+      </c>
+      <c r="D44">
+        <v>0.06938719639315699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001417606968823454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001331619092459857</v>
+      </c>
+      <c r="C46">
+        <v>0.03281957664075124</v>
+      </c>
+      <c r="D46">
+        <v>0.03387922409033167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002241936301093704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002687856580996697</v>
+      </c>
+      <c r="C47">
+        <v>0.0358032400529958</v>
+      </c>
+      <c r="D47">
+        <v>0.02255501559178151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004385249444670364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007021064603028121</v>
+      </c>
+      <c r="C48">
+        <v>0.03325307186185156</v>
+      </c>
+      <c r="D48">
+        <v>0.03412464045892991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.00454666433666665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01671052541888373</v>
+      </c>
+      <c r="C49">
+        <v>0.1858573905217408</v>
+      </c>
+      <c r="D49">
+        <v>0.007904720824703757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004678968584085578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003784096491581524</v>
+      </c>
+      <c r="C50">
+        <v>0.04326227668776478</v>
+      </c>
+      <c r="D50">
+        <v>0.04041408652347291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001534736085859355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003878618490871647</v>
+      </c>
+      <c r="C51">
+        <v>0.02674208689822387</v>
+      </c>
+      <c r="D51">
+        <v>0.02298651639424132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008651239783745377</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02147190780309402</v>
+      </c>
+      <c r="C53">
+        <v>0.1718445939516994</v>
+      </c>
+      <c r="D53">
+        <v>0.01875475929554623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004024707098402103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009476752322192909</v>
+      </c>
+      <c r="C54">
+        <v>0.05688473579994811</v>
+      </c>
+      <c r="D54">
+        <v>0.04203185162820489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001978291344788612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01001196756390029</v>
+      </c>
+      <c r="C55">
+        <v>0.1087629053003288</v>
+      </c>
+      <c r="D55">
+        <v>0.0361239029649954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009650199783698533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02121779676781807</v>
+      </c>
+      <c r="C56">
+        <v>0.1743407247553851</v>
+      </c>
+      <c r="D56">
+        <v>0.01409983677367639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001387067726371394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01621453942517773</v>
+      </c>
+      <c r="C58">
+        <v>0.1073425934461425</v>
+      </c>
+      <c r="D58">
+        <v>0.06678944458904497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00251199806583191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009397870649382587</v>
+      </c>
+      <c r="C59">
+        <v>0.1680580220692271</v>
+      </c>
+      <c r="D59">
+        <v>-0.346175349952457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008609238137037066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02561802300802425</v>
+      </c>
+      <c r="C60">
+        <v>0.2236863339618989</v>
+      </c>
+      <c r="D60">
+        <v>0.01618806651922911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01013373041630346</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002246778908522259</v>
+      </c>
+      <c r="C61">
+        <v>0.09393678290354096</v>
+      </c>
+      <c r="D61">
+        <v>0.05932878031605027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1499207366967304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1520749790483439</v>
+      </c>
+      <c r="C62">
+        <v>0.1018572721286048</v>
+      </c>
+      <c r="D62">
+        <v>0.01831447855343315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001593244993653462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006560761997642345</v>
+      </c>
+      <c r="C63">
+        <v>0.05368674582916654</v>
+      </c>
+      <c r="D63">
+        <v>0.033563808299241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.009921291137671135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01658963325084327</v>
+      </c>
+      <c r="C64">
+        <v>0.1062633626504566</v>
+      </c>
+      <c r="D64">
+        <v>0.05539184782639579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.009014268543557743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01787494920889193</v>
+      </c>
+      <c r="C65">
+        <v>0.1205826600001187</v>
+      </c>
+      <c r="D65">
+        <v>0.02767025495892111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001094164351149268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01244844644421947</v>
+      </c>
+      <c r="C66">
+        <v>0.1595665882361761</v>
+      </c>
+      <c r="D66">
+        <v>0.1134293378968303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005974614145998471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01530359537336256</v>
+      </c>
+      <c r="C67">
+        <v>0.07353788193878803</v>
+      </c>
+      <c r="D67">
+        <v>0.02147324658863338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004153182588926877</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0003764209689540301</v>
+      </c>
+      <c r="C68">
+        <v>0.0845484953575262</v>
+      </c>
+      <c r="D68">
+        <v>-0.2584501370050996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001252222852677588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006383351901869331</v>
+      </c>
+      <c r="C69">
+        <v>0.05308556814509744</v>
+      </c>
+      <c r="D69">
+        <v>0.03726480126724503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001293915120550258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002465753262800335</v>
+      </c>
+      <c r="C70">
+        <v>0.008486624932559266</v>
+      </c>
+      <c r="D70">
+        <v>-0.001282342121365972</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004791243193570869</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004774571673606507</v>
+      </c>
+      <c r="C71">
+        <v>0.08909332495402765</v>
+      </c>
+      <c r="D71">
+        <v>-0.3018980189014565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005175662802120593</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01797507437472521</v>
+      </c>
+      <c r="C72">
+        <v>0.158484994296541</v>
+      </c>
+      <c r="D72">
+        <v>0.00686039325407569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01064651761539546</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03122692741487588</v>
+      </c>
+      <c r="C73">
+        <v>0.2809981152757151</v>
+      </c>
+      <c r="D73">
+        <v>0.051380771423008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005158900933803501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001942339389966155</v>
+      </c>
+      <c r="C74">
+        <v>0.1028512940418292</v>
+      </c>
+      <c r="D74">
+        <v>0.03342771243474479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0002900540864927174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01137458542955996</v>
+      </c>
+      <c r="C75">
+        <v>0.1209761063293993</v>
+      </c>
+      <c r="D75">
+        <v>0.02765426741254609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01165504658081331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02195389044446877</v>
+      </c>
+      <c r="C76">
+        <v>0.1462661675067846</v>
+      </c>
+      <c r="D76">
+        <v>0.05742104267529251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007823037348721803</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0209109686274217</v>
+      </c>
+      <c r="C77">
+        <v>0.1104580257719894</v>
+      </c>
+      <c r="D77">
+        <v>0.05479881420078933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005185948038429537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01387731166251857</v>
+      </c>
+      <c r="C78">
+        <v>0.09941497397649206</v>
+      </c>
+      <c r="D78">
+        <v>0.08239898328651438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02792678595640475</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03898376676466041</v>
+      </c>
+      <c r="C79">
+        <v>0.157870913332333</v>
+      </c>
+      <c r="D79">
+        <v>0.03020027581744386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006547901727858622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009547626560617417</v>
+      </c>
+      <c r="C80">
+        <v>0.03992305143502919</v>
+      </c>
+      <c r="D80">
+        <v>0.0310990520009924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005389203841135182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01620563029288312</v>
+      </c>
+      <c r="C81">
+        <v>0.1306082654357668</v>
+      </c>
+      <c r="D81">
+        <v>0.03780047917514432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008277142820198643</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01962927542366117</v>
+      </c>
+      <c r="C82">
+        <v>0.1364468037025579</v>
+      </c>
+      <c r="D82">
+        <v>0.03687989463655846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004281903217550296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01229009399428837</v>
+      </c>
+      <c r="C83">
+        <v>0.06471768528886969</v>
+      </c>
+      <c r="D83">
+        <v>0.04466052751837534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004106291437434283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006169277884227097</v>
+      </c>
+      <c r="C84">
+        <v>0.03421087744785131</v>
+      </c>
+      <c r="D84">
+        <v>0.01195496494574849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01902404157457508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02923117524846401</v>
+      </c>
+      <c r="C85">
+        <v>0.1234958220642545</v>
+      </c>
+      <c r="D85">
+        <v>0.03885056779832104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002849064769045749</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003552150196959933</v>
+      </c>
+      <c r="C86">
+        <v>0.05083345221401283</v>
+      </c>
+      <c r="D86">
+        <v>0.02714254494287364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001514926193329476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01136962773307976</v>
+      </c>
+      <c r="C87">
+        <v>0.1285355517825702</v>
+      </c>
+      <c r="D87">
+        <v>0.07456255630490721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008697356366614487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003041501504703838</v>
+      </c>
+      <c r="C88">
+        <v>0.06336875145567217</v>
+      </c>
+      <c r="D88">
+        <v>0.03060119552688411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01154279302496538</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003345053513621732</v>
+      </c>
+      <c r="C89">
+        <v>0.1347011373772043</v>
+      </c>
+      <c r="D89">
+        <v>-0.3138615244044285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001625574772999424</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005693520706522618</v>
+      </c>
+      <c r="C90">
+        <v>0.1162863641353122</v>
+      </c>
+      <c r="D90">
+        <v>-0.3122045898900678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002700758440570706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.011214959826602</v>
+      </c>
+      <c r="C91">
+        <v>0.09975387992257125</v>
+      </c>
+      <c r="D91">
+        <v>0.02783468944334689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005348243392702197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0003109833510168762</v>
+      </c>
+      <c r="C92">
+        <v>0.1294104279231071</v>
+      </c>
+      <c r="D92">
+        <v>-0.3267260588703879</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00181434333519133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003210097129171441</v>
+      </c>
+      <c r="C93">
+        <v>0.104001319588999</v>
+      </c>
+      <c r="D93">
+        <v>-0.3006978607657831</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01063892924579456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02208310086764262</v>
+      </c>
+      <c r="C94">
+        <v>0.1410275730847568</v>
+      </c>
+      <c r="D94">
+        <v>0.05401916232876487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007032930154381473</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01584503682177279</v>
+      </c>
+      <c r="C95">
+        <v>0.1203483977523511</v>
+      </c>
+      <c r="D95">
+        <v>0.06607818064666614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01701058830382203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03707722555120922</v>
+      </c>
+      <c r="C97">
+        <v>0.22568388379525</v>
+      </c>
+      <c r="D97">
+        <v>-0.002509861514762048</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01270205162287944</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03915459471413734</v>
+      </c>
+      <c r="C98">
+        <v>0.2612613601129685</v>
+      </c>
+      <c r="D98">
+        <v>0.02592771360016668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864562231982636</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9809065197180117</v>
+      </c>
+      <c r="C99">
+        <v>-0.119607211622258</v>
+      </c>
+      <c r="D99">
+        <v>-0.02404480617119145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0007304161421468773</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003080861091088855</v>
+      </c>
+      <c r="C101">
+        <v>0.04731485228342371</v>
+      </c>
+      <c r="D101">
+        <v>0.01257882558689409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
